--- a/work/V1.2_新增字段(31号更新).xlsx
+++ b/work/V1.2_新增字段(31号更新).xlsx
@@ -3945,7 +3945,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3963,10 +3963,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4101,9 +4097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>408960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4117,7 +4113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266760" y="600120"/>
-          <a:ext cx="14820480" cy="3895560"/>
+          <a:ext cx="14849280" cy="3895200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4140,10 +4136,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C256" activeCellId="0" sqref="C256"/>
+      <selection pane="topLeft" activeCell="C254" activeCellId="0" sqref="C254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="93.38"/>
@@ -4369,11 +4365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-    </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
         <v>34</v>
       </c>
@@ -4394,7 +4386,6 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
       <c r="B17" s="0" t="s">
         <v>37</v>
       </c>
@@ -4415,7 +4406,6 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
       <c r="B18" s="0" t="s">
         <v>39</v>
       </c>
@@ -4436,7 +4426,6 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
       <c r="B19" s="0" t="s">
         <v>41</v>
       </c>
@@ -4457,7 +4446,6 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
       <c r="B20" s="0" t="s">
         <v>19</v>
       </c>
@@ -4478,7 +4466,6 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
       <c r="B21" s="0" t="s">
         <v>15</v>
       </c>
@@ -4499,7 +4486,6 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
       <c r="B22" s="0" t="s">
         <v>17</v>
       </c>
@@ -4520,7 +4506,6 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
       <c r="B23" s="0" t="s">
         <v>43</v>
       </c>
@@ -4541,7 +4526,6 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
       <c r="B24" s="0" t="s">
         <v>45</v>
       </c>
@@ -4562,7 +4546,6 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
       <c r="B25" s="0" t="s">
         <v>47</v>
       </c>
@@ -4583,7 +4566,6 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
       <c r="B26" s="0" t="s">
         <v>49</v>
       </c>
@@ -4604,7 +4586,6 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
       <c r="B27" s="0" t="s">
         <v>51</v>
       </c>
@@ -4625,7 +4606,6 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
       <c r="B28" s="0" t="s">
         <v>53</v>
       </c>
@@ -4646,7 +4626,6 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
       <c r="B29" s="0" t="s">
         <v>55</v>
       </c>
@@ -4667,7 +4646,6 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
       <c r="B30" s="0" t="s">
         <v>57</v>
       </c>
@@ -4689,16 +4667,16 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H32" s="3"/>
@@ -4933,7 +4911,7 @@
       <c r="C50" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H50" s="3"/>
@@ -4942,10 +4920,10 @@
       <c r="B51" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H51" s="3"/>
@@ -4954,10 +4932,10 @@
       <c r="B52" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H52" s="3"/>
@@ -4966,10 +4944,10 @@
       <c r="B53" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H53" s="3"/>
@@ -4978,10 +4956,10 @@
       <c r="B54" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E54" s="0" t="s">
@@ -4993,10 +4971,10 @@
       <c r="B55" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H55" s="3"/>
@@ -5005,10 +4983,10 @@
       <c r="B56" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H56" s="3"/>
@@ -5017,10 +4995,10 @@
       <c r="B57" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H57" s="3"/>
@@ -5029,10 +5007,10 @@
       <c r="B58" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H58" s="3"/>
@@ -5041,10 +5019,10 @@
       <c r="B59" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E59" s="0" t="s">
@@ -5056,10 +5034,10 @@
       <c r="B60" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E60" s="0" t="s">
@@ -5071,10 +5049,10 @@
       <c r="B61" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H61" s="3"/>
@@ -5083,10 +5061,10 @@
       <c r="B62" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H62" s="3"/>
@@ -5095,10 +5073,10 @@
       <c r="B63" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H63" s="3"/>
@@ -5107,10 +5085,10 @@
       <c r="B64" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H64" s="3"/>
@@ -5119,10 +5097,10 @@
       <c r="B65" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H65" s="3"/>
@@ -5141,7 +5119,7 @@
       <c r="C68" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H68" s="3"/>
@@ -5190,7 +5168,7 @@
       <c r="B72" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>140</v>
       </c>
       <c r="D72" s="0" t="s">
@@ -5271,7 +5249,7 @@
       <c r="B78" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D78" s="0" t="s">
@@ -5323,7 +5301,7 @@
       <c r="B82" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>160</v>
       </c>
       <c r="D82" s="0" t="s">
@@ -5378,7 +5356,7 @@
       <c r="B86" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>168</v>
       </c>
       <c r="D86" s="0" t="s">
@@ -5446,7 +5424,7 @@
       <c r="B91" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="12" t="s">
         <v>178</v>
       </c>
       <c r="D91" s="0" t="s">
@@ -5545,7 +5523,7 @@
       <c r="C99" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>191</v>
       </c>
       <c r="H99" s="3"/>
@@ -5554,7 +5532,7 @@
       <c r="B100" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>193</v>
       </c>
       <c r="D100" s="0" t="s">
@@ -5605,7 +5583,7 @@
       <c r="B104" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D104" s="0" t="s">
@@ -5629,7 +5607,7 @@
       <c r="B106" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>205</v>
       </c>
       <c r="D106" s="0" t="s">
@@ -5662,7 +5640,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>210</v>
       </c>
       <c r="C109" s="0" t="s">
@@ -5701,7 +5679,7 @@
       <c r="B112" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>217</v>
       </c>
       <c r="D112" s="0" t="s">
@@ -5773,10 +5751,10 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="12" t="s">
         <v>229</v>
       </c>
       <c r="D118" s="0" t="s">
@@ -5809,7 +5787,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C121" s="0" t="s">
@@ -5857,7 +5835,7 @@
       <c r="H124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="15" t="s">
         <v>242</v>
       </c>
       <c r="C125" s="0" t="s">
@@ -5872,7 +5850,7 @@
       <c r="B126" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>245</v>
       </c>
       <c r="D126" s="0" t="s">
@@ -5935,7 +5913,7 @@
       <c r="B131" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="12" t="s">
         <v>255</v>
       </c>
       <c r="D131" s="0" t="s">
@@ -6501,7 +6479,7 @@
       <c r="C182" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6800,7 +6778,7 @@
       <c r="C209" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="6" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6977,7 +6955,7 @@
       <c r="C226" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D226" s="6" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7323,15 +7301,15 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7374,7 +7352,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7394,22 +7372,22 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>486</v>
       </c>
       <c r="C3" s="0" t="s">
